--- a/biology/Botanique/Alysson_maritime/Alysson_maritime.xlsx
+++ b/biology/Botanique/Alysson_maritime/Alysson_maritime.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F9"/>
+  <dimension ref="A1:H12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Lobularia maritima
 L'Alysson maritime, aussi nommé corbeille d'argent, est une espèce de plantes à petites fleurs blanches appartenant à la famille des Brassicacées (ou Crucifères).
@@ -512,7 +524,9 @@
           <t>Taxonomie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Son nom scientifique accepté est Lobularia maritima (L.) Desv., mais elle est également connue sous le synonyme Alyssum maritimum (L.) Lam. En 1753, Linné l'avait nommée Clypeola maritima.
 </t>
@@ -543,11 +557,11 @@
           <t>Usages</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">La plante est très cultivée dans les jardins, avec de nombreuses variétés horticoles à fleurs roses ou pourprées.
-Agronomie
-N'étant pas porteuse de maladies des plantes cultivées, et poussant assez vite et assez densément pour concurrencer les adventices indésirables des champs, elle pourrait avoir un intérêt en agroécologie (pour le maraichage bio par exemple) en abritant de nombreux invertébrés utiles à l'agriculture. Elle abrite quelques phytophages, dont thysanoptères (thrips) et pucerons, tels que divers  lygaeidés (Nyzius spp., etc.)  et rhopalidés (Stictopleurus spp., etc.) mais en faible quantité et elle peut aussi abriter leurs prédateurs[1].
 </t>
         </is>
       </c>
@@ -573,15 +587,19 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Écologie et habitat</t>
+          <t>Usages</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Plante annuelle, parfois vivace, poussant dans les régions méditerranéennes de l'Europe, rencontrée aussi en France dans le golfe de Gascogne, naturalisée ailleurs. Elle est fréquente en bord de mer (rochers, sables), mais peut aussi pousser sur les talus et les terrains vagues, de préférence sur sol calcaire. Elle est utilisée en Californie en push-pull dans les cultures de choux, choux fleur en particulier.
-La période de floraison est très longue et se poursuit d'octobre à juillet[2].
-Pollinisation : entomogame.
-Dissémination : anémochore.</t>
+          <t>Agronomie</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">N'étant pas porteuse de maladies des plantes cultivées, et poussant assez vite et assez densément pour concurrencer les adventices indésirables des champs, elle pourrait avoir un intérêt en agroécologie (pour le maraichage bio par exemple) en abritant de nombreux invertébrés utiles à l'agriculture. Elle abrite quelques phytophages, dont thysanoptères (thrips) et pucerons, tels que divers  lygaeidés (Nyzius spp., etc.)  et rhopalidés (Stictopleurus spp., etc.) mais en faible quantité et elle peut aussi abriter leurs prédateurs.
+</t>
         </is>
       </c>
     </row>
@@ -606,13 +624,17 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Statuts de protection</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'espèce n'est pas encore évaluée à l'échelle mondiale et européenne par l'UICN. En France elle est classée comme non préoccupante [3].
-</t>
+          <t>Écologie et habitat</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Plante annuelle, parfois vivace, poussant dans les régions méditerranéennes de l'Europe, rencontrée aussi en France dans le golfe de Gascogne, naturalisée ailleurs. Elle est fréquente en bord de mer (rochers, sables), mais peut aussi pousser sur les talus et les terrains vagues, de préférence sur sol calcaire. Elle est utilisée en Californie en push-pull dans les cultures de choux, choux fleur en particulier.
+La période de floraison est très longue et se poursuit d'octobre à juillet.
+Pollinisation : entomogame.
+Dissémination : anémochore.</t>
         </is>
       </c>
     </row>
@@ -637,16 +659,14 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Description</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Plante herbacée à base légèrement ligneuse, plutôt petite (moins de 30 cm), très ramifiée, se présentant généralement en touffes abondantes. Feuilles plutôt glauques, alternes, sessiles, simples et entières, étroites (de lancéolées à linéaires), en principe assez velues.
-Morphologie florale
-Inflorescence en racème arrondi au début, s'allongeant en fin de floraison, portant de nombreuses petites fleurs blanches parfumées (5 mm environ). Petit calice à quatre sépales. Corolle à quatre pétales arrondis. Six étamines à anthères jaunes. Ovaire supère.
-Fruit et graines
-Infrutescence allongée portant de nombreuses silicules assez velues, ovales à arrondies, renfermant chacune deux graines.
+          <t>Statuts de protection</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'espèce n'est pas encore évaluée à l'échelle mondiale et européenne par l'UICN. En France elle est classée comme non préoccupante .
 </t>
         </is>
       </c>
@@ -672,10 +692,119 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Plante herbacée à base légèrement ligneuse, plutôt petite (moins de 30 cm), très ramifiée, se présentant généralement en touffes abondantes. Feuilles plutôt glauques, alternes, sessiles, simples et entières, étroites (de lancéolées à linéaires), en principe assez velues.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Alysson_maritime</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Alysson_maritime</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Morphologie florale</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Inflorescence en racème arrondi au début, s'allongeant en fin de floraison, portant de nombreuses petites fleurs blanches parfumées (5 mm environ). Petit calice à quatre sépales. Corolle à quatre pétales arrondis. Six étamines à anthères jaunes. Ovaire supère.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Alysson_maritime</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Alysson_maritime</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Fruit et graines</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Infrutescence allongée portant de nombreuses silicules assez velues, ovales à arrondies, renfermant chacune deux graines.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Alysson_maritime</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Alysson_maritime</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
           <t>Variétés horticoles</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="F11" t="inlineStr"/>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
         <is>
           <t>Lobularia maritima 'Benthamii'
 Lobularia maritima 'Carpet of Snow'
@@ -693,31 +822,33 @@
         </is>
       </c>
     </row>
-    <row r="9">
-      <c r="A9" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>Alysson_maritime</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>Portail:Botanique/Articles liés</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Alysson_maritime</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Alysson_maritime</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Alysson_maritime</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
         <is>
           <t>Interaction écologique</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
+      <c r="F12" t="inlineStr"/>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="inlineStr">
         <is>
           <t xml:space="preserve">La chenille du papillon de jour Piéride de l'ibéride (Pieris mannii) se nourrit d'Alysson maritime.
 </t>
